--- a/final_report/Trace_Report_WCS_initial.xlsx
+++ b/final_report/Trace_Report_WCS_initial.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rail car\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58D62CBF-AC4F-4F17-906F-CCFA57392EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{454DEF27-CCC7-448F-8029-9BF4D62808FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="3045" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="4485" yWindow="2970" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Test_format_trace" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_format_trace!$A$2:$N$8</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
   <si>
     <t>Initial</t>
   </si>
@@ -68,42 +65,48 @@
     <t>Destination City</t>
   </si>
   <si>
+    <t>ITFX</t>
+  </si>
+  <si>
+    <t>JOHNSTOWN</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Placed Actual</t>
+  </si>
+  <si>
     <t>MWCX</t>
   </si>
   <si>
-    <t>BIRMINGHAM</t>
-  </si>
-  <si>
-    <t>AL</t>
+    <t>LOVELAND</t>
+  </si>
+  <si>
+    <t>Junction Received</t>
+  </si>
+  <si>
+    <t>BNSF</t>
+  </si>
+  <si>
+    <t>MEMPHIS</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>VALDOSTA</t>
+  </si>
+  <si>
+    <t>GA</t>
   </si>
   <si>
     <t>Arrive In-Transit</t>
   </si>
   <si>
-    <t>LOVELAND</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>AOKX</t>
-  </si>
-  <si>
-    <t>COFFEYVILLE</t>
-  </si>
-  <si>
-    <t>KS</t>
-  </si>
-  <si>
-    <t>MNLNPB</t>
-  </si>
-  <si>
-    <t>JOHNSTOWN</t>
-  </si>
-  <si>
-    <t>Placed Actual</t>
-  </si>
-  <si>
     <t>Gross Weight</t>
   </si>
   <si>
@@ -113,28 +116,34 @@
     <t>Net Weight</t>
   </si>
   <si>
-    <t>Description unknown, completed 05/12/2023 06:01:19 EDT, by WPJTOWN1.The search returned: 6 events.</t>
+    <t>Description unknown, completed 06/15/2023 06:00:44 EDT, by WPJTOWN1.The search returned: 8 events.</t>
   </si>
   <si>
     <t>Car_no</t>
   </si>
   <si>
+    <t>ITFX9725</t>
+  </si>
+  <si>
+    <t>ITFX9728</t>
+  </si>
+  <si>
     <t>MWCX102555</t>
   </si>
   <si>
-    <t>AOKX40622</t>
-  </si>
-  <si>
-    <t>AOKX40633</t>
-  </si>
-  <si>
-    <t>AOKX40683</t>
-  </si>
-  <si>
-    <t>AOKX40648</t>
-  </si>
-  <si>
-    <t>AOKX40646</t>
+    <t>MWCX102276</t>
+  </si>
+  <si>
+    <t>MWCX102166</t>
+  </si>
+  <si>
+    <t>MWCX102330</t>
+  </si>
+  <si>
+    <t>MWCX102553</t>
+  </si>
+  <si>
+    <t>MWCX102328</t>
   </si>
 </sst>
 </file>
@@ -975,17 +984,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O8"/>
+      <selection activeCell="O3" sqref="O3:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1023,16 +1032,16 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1040,7 +1049,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>102555</v>
+        <v>9725</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1049,267 +1058,351 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>1812</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L3">
-        <v>281100</v>
+        <v>202700</v>
       </c>
       <c r="M3">
-        <v>73600</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>207500</v>
+        <v>202700</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>40622</v>
+        <v>9728</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1415</v>
+        <v>1812</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L4">
-        <v>188050</v>
+        <v>202950</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>188050</v>
+        <v>202950</v>
       </c>
       <c r="O4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>40633</v>
+        <v>102555</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1415</v>
+        <v>1811</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L5">
-        <v>188050</v>
+        <v>281100</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>73600</v>
       </c>
       <c r="N5">
-        <v>188050</v>
+        <v>207500</v>
       </c>
       <c r="O5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>40683</v>
+        <v>102276</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>1344</v>
+        <v>1304</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
       </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L6">
-        <v>188150</v>
+        <v>280350</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>78900</v>
       </c>
       <c r="N6">
-        <v>188150</v>
+        <v>201450</v>
       </c>
       <c r="O6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>40648</v>
+        <v>102166</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>1304</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
         <v>15</v>
       </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>1236</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>20</v>
-      </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L7">
-        <v>211960</v>
+        <v>282400</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>82000</v>
       </c>
       <c r="N7">
-        <v>211960</v>
+        <v>200400</v>
       </c>
       <c r="O7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>102330</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>1045</v>
+      </c>
+      <c r="H8" t="s">
         <v>16</v>
       </c>
-      <c r="B8">
-        <v>40646</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8">
+        <v>284850</v>
+      </c>
+      <c r="M8">
+        <v>79300</v>
+      </c>
+      <c r="N8">
+        <v>205550</v>
+      </c>
+      <c r="O8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>102553</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>1300</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="J9" t="s">
         <v>15</v>
       </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>1236</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9">
+        <v>281050</v>
+      </c>
+      <c r="M9">
+        <v>73400</v>
+      </c>
+      <c r="N9">
+        <v>207650</v>
+      </c>
+      <c r="O9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>102328</v>
+      </c>
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="J8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>2248</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" t="s">
         <v>15</v>
       </c>
-      <c r="L8">
-        <v>211760</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>211760</v>
-      </c>
-      <c r="O8" t="s">
-        <v>32</v>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10">
+        <v>280550</v>
+      </c>
+      <c r="M10">
+        <v>79500</v>
+      </c>
+      <c r="N10">
+        <v>201050</v>
+      </c>
+      <c r="O10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:N8"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/final_report/Trace_Report_WCS_initial.xlsx
+++ b/final_report/Trace_Report_WCS_initial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rail car\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{454DEF27-CCC7-448F-8029-9BF4D62808FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9153530B-E832-484C-8502-B85F29211690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="2970" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="2160" yWindow="1110" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Test_format_trace" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>Initial</t>
   </si>
@@ -65,46 +65,61 @@
     <t>Destination City</t>
   </si>
   <si>
+    <t>MWCX</t>
+  </si>
+  <si>
+    <t>AMORY</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Arrive In-Transit</t>
+  </si>
+  <si>
+    <t>RHLA85</t>
+  </si>
+  <si>
+    <t>LOVELAND</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>ARKWRIGHT</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Departure</t>
+  </si>
+  <si>
+    <t>COLORADO SPRIN</t>
+  </si>
+  <si>
+    <t>HKCKDE</t>
+  </si>
+  <si>
     <t>ITFX</t>
   </si>
   <si>
     <t>JOHNSTOWN</t>
   </si>
   <si>
-    <t>CO</t>
-  </si>
-  <si>
     <t>Placed Actual</t>
   </si>
   <si>
-    <t>MWCX</t>
-  </si>
-  <si>
-    <t>LOVELAND</t>
-  </si>
-  <si>
-    <t>Junction Received</t>
-  </si>
-  <si>
-    <t>BNSF</t>
-  </si>
-  <si>
     <t>MEMPHIS</t>
   </si>
   <si>
     <t>TN</t>
   </si>
   <si>
-    <t>NS</t>
-  </si>
-  <si>
-    <t>VALDOSTA</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>Arrive In-Transit</t>
+    <t>Bad Order</t>
+  </si>
+  <si>
+    <t>L 000</t>
   </si>
   <si>
     <t>Gross Weight</t>
@@ -116,21 +131,24 @@
     <t>Net Weight</t>
   </si>
   <si>
-    <t>Description unknown, completed 06/15/2023 06:00:44 EDT, by WPJTOWN1.The search returned: 8 events.</t>
+    <t>Description unknown, completed 06/21/2023 09:18:52 EDT, by WPJTOWN1.The search returned: 8 events.</t>
   </si>
   <si>
     <t>Car_no</t>
   </si>
   <si>
-    <t>ITFX9725</t>
+    <t>MWCX100705</t>
+  </si>
+  <si>
+    <t>MWCX100715</t>
+  </si>
+  <si>
+    <t>MWCX102553</t>
   </si>
   <si>
     <t>ITFX9728</t>
   </si>
   <si>
-    <t>MWCX102555</t>
-  </si>
-  <si>
     <t>MWCX102276</t>
   </si>
   <si>
@@ -138,9 +156,6 @@
   </si>
   <si>
     <t>MWCX102330</t>
-  </si>
-  <si>
-    <t>MWCX102553</t>
   </si>
   <si>
     <t>MWCX102328</t>
@@ -994,7 +1009,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1032,16 +1047,16 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1049,7 +1064,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>9725</v>
+        <v>100705</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1061,31 +1076,34 @@
         <v>6</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>1812</v>
+        <v>1759</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L3">
-        <v>202700</v>
+        <v>267061</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>72200</v>
       </c>
       <c r="N3">
-        <v>202700</v>
+        <v>194861</v>
       </c>
       <c r="O3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1093,145 +1111,148 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>9728</v>
+        <v>100715</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>6</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>1812</v>
+        <v>603</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L4">
-        <v>202950</v>
+        <v>267600</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>73600</v>
       </c>
       <c r="N4">
-        <v>202950</v>
+        <v>194000</v>
       </c>
       <c r="O4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>102555</v>
+        <v>102553</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>6</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G5">
-        <v>1811</v>
+        <v>714</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L5">
-        <v>281100</v>
+        <v>281050</v>
       </c>
       <c r="M5">
-        <v>73600</v>
+        <v>73400</v>
       </c>
       <c r="N5">
-        <v>207500</v>
+        <v>207650</v>
       </c>
       <c r="O5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B6">
-        <v>102276</v>
+        <v>9728</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>6</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1304</v>
+        <v>1812</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L6">
-        <v>280350</v>
+        <v>202950</v>
       </c>
       <c r="M6">
-        <v>78900</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>201450</v>
+        <v>202950</v>
       </c>
       <c r="O6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>102166</v>
+        <v>102276</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1243,39 +1264,39 @@
         <v>1304</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L7">
-        <v>282400</v>
+        <v>280350</v>
       </c>
       <c r="M7">
-        <v>82000</v>
+        <v>78900</v>
       </c>
       <c r="N7">
-        <v>200400</v>
+        <v>201450</v>
       </c>
       <c r="O7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>102330</v>
+        <v>102166</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -1284,110 +1305,107 @@
         <v>12</v>
       </c>
       <c r="G8">
-        <v>1045</v>
+        <v>1304</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J8" t="s">
         <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L8">
-        <v>284850</v>
+        <v>282400</v>
       </c>
       <c r="M8">
-        <v>79300</v>
+        <v>82000</v>
       </c>
       <c r="N8">
-        <v>205550</v>
+        <v>200400</v>
       </c>
       <c r="O8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>102553</v>
+        <v>102330</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
       <c r="F9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>1300</v>
+        <v>1435</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J9" t="s">
         <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L9">
-        <v>281050</v>
+        <v>284850</v>
       </c>
       <c r="M9">
-        <v>73400</v>
+        <v>79300</v>
       </c>
       <c r="N9">
-        <v>207650</v>
+        <v>205550</v>
       </c>
       <c r="O9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>102328</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>6</v>
       </c>
       <c r="F10">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>2248</v>
+        <v>1950</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L10">
         <v>280550</v>
@@ -1399,7 +1417,7 @@
         <v>201050</v>
       </c>
       <c r="O10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/final_report/Trace_Report_WCS_initial.xlsx
+++ b/final_report/Trace_Report_WCS_initial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rail car\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9153530B-E832-484C-8502-B85F29211690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC7FC73F-BF5D-47CB-99D3-CD8EA97BC9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="1110" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="3885" yWindow="2835" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Test_format_trace" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>Initial</t>
   </si>
@@ -68,58 +68,55 @@
     <t>MWCX</t>
   </si>
   <si>
-    <t>AMORY</t>
+    <t>BIRMINGHAM</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Arrive In-Transit</t>
+  </si>
+  <si>
+    <t>LOVELAND</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>DENVER</t>
+  </si>
+  <si>
+    <t>HKCKDE</t>
+  </si>
+  <si>
+    <t>ITFX</t>
+  </si>
+  <si>
+    <t>JOHNSTOWN</t>
+  </si>
+  <si>
+    <t>Placed Actual</t>
+  </si>
+  <si>
+    <t>MEMPHIS</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Bad Order</t>
+  </si>
+  <si>
+    <t>L 000</t>
+  </si>
+  <si>
+    <t>NETTLETON</t>
   </si>
   <si>
     <t>MS</t>
   </si>
   <si>
-    <t>Arrive In-Transit</t>
-  </si>
-  <si>
-    <t>RHLA85</t>
-  </si>
-  <si>
-    <t>LOVELAND</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>ARKWRIGHT</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>Departure</t>
-  </si>
-  <si>
-    <t>COLORADO SPRIN</t>
-  </si>
-  <si>
-    <t>HKCKDE</t>
-  </si>
-  <si>
-    <t>ITFX</t>
-  </si>
-  <si>
-    <t>JOHNSTOWN</t>
-  </si>
-  <si>
-    <t>Placed Actual</t>
-  </si>
-  <si>
-    <t>MEMPHIS</t>
-  </si>
-  <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>Bad Order</t>
-  </si>
-  <si>
-    <t>L 000</t>
+    <t>YAMO10</t>
   </si>
   <si>
     <t>Gross Weight</t>
@@ -131,34 +128,34 @@
     <t>Net Weight</t>
   </si>
   <si>
-    <t>Description unknown, completed 06/21/2023 09:18:52 EDT, by WPJTOWN1.The search returned: 8 events.</t>
+    <t>Description unknown, completed 06/22/2023 11:10:13 EDT, by WPJTOWN1.The search returned: 8 events.</t>
   </si>
   <si>
     <t>Car_no</t>
   </si>
   <si>
+    <t>MWCX100715</t>
+  </si>
+  <si>
+    <t>MWCX102553</t>
+  </si>
+  <si>
+    <t>ITFX9728</t>
+  </si>
+  <si>
+    <t>MWCX102276</t>
+  </si>
+  <si>
+    <t>MWCX102166</t>
+  </si>
+  <si>
+    <t>MWCX102330</t>
+  </si>
+  <si>
+    <t>MWCX102328</t>
+  </si>
+  <si>
     <t>MWCX100705</t>
-  </si>
-  <si>
-    <t>MWCX100715</t>
-  </si>
-  <si>
-    <t>MWCX102553</t>
-  </si>
-  <si>
-    <t>ITFX9728</t>
-  </si>
-  <si>
-    <t>MWCX102276</t>
-  </si>
-  <si>
-    <t>MWCX102166</t>
-  </si>
-  <si>
-    <t>MWCX102330</t>
-  </si>
-  <si>
-    <t>MWCX102328</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1006,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1047,16 +1044,16 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1064,7 +1061,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>100705</v>
+        <v>100715</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1076,34 +1073,31 @@
         <v>6</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>1759</v>
+        <v>1610</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
       <c r="L3">
-        <v>267061</v>
+        <v>267600</v>
       </c>
       <c r="M3">
-        <v>72200</v>
+        <v>73600</v>
       </c>
       <c r="N3">
-        <v>194861</v>
+        <v>194000</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1111,13 +1105,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>100715</v>
+        <v>102553</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -1126,119 +1120,119 @@
         <v>21</v>
       </c>
       <c r="G4">
-        <v>603</v>
+        <v>1323</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
       </c>
       <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
         <v>15</v>
       </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
       <c r="L4">
-        <v>267600</v>
+        <v>281050</v>
       </c>
       <c r="M4">
-        <v>73600</v>
+        <v>73400</v>
       </c>
       <c r="N4">
-        <v>194000</v>
+        <v>207650</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>102553</v>
+        <v>9728</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>6</v>
       </c>
       <c r="F5">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>714</v>
+        <v>1812</v>
       </c>
       <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>15</v>
       </c>
-      <c r="K5" t="s">
-        <v>16</v>
-      </c>
       <c r="L5">
-        <v>281050</v>
+        <v>202950</v>
       </c>
       <c r="M5">
-        <v>73400</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>207650</v>
+        <v>202950</v>
       </c>
       <c r="O5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>9728</v>
+        <v>102276</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>6</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>1812</v>
+        <v>1304</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L6">
-        <v>202950</v>
+        <v>280350</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>78900</v>
       </c>
       <c r="N6">
-        <v>202950</v>
+        <v>201450</v>
       </c>
       <c r="O6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1246,13 +1240,13 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>102276</v>
+        <v>102166</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1264,25 +1258,25 @@
         <v>1304</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
         <v>15</v>
       </c>
-      <c r="K7" t="s">
-        <v>16</v>
-      </c>
       <c r="L7">
-        <v>280350</v>
+        <v>282400</v>
       </c>
       <c r="M7">
-        <v>78900</v>
+        <v>82000</v>
       </c>
       <c r="N7">
-        <v>201450</v>
+        <v>200400</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1290,43 +1284,43 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>102166</v>
+        <v>102330</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>1304</v>
+        <v>1435</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
         <v>15</v>
       </c>
-      <c r="K8" t="s">
-        <v>16</v>
-      </c>
       <c r="L8">
-        <v>282400</v>
+        <v>284850</v>
       </c>
       <c r="M8">
-        <v>82000</v>
+        <v>79300</v>
       </c>
       <c r="N8">
-        <v>200400</v>
+        <v>205550</v>
       </c>
       <c r="O8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1334,43 +1328,46 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>102330</v>
+        <v>102328</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
       <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>1950</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
         <v>15</v>
       </c>
-      <c r="G9">
-        <v>1435</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
-      </c>
       <c r="L9">
-        <v>284850</v>
+        <v>280550</v>
       </c>
       <c r="M9">
-        <v>79300</v>
+        <v>79500</v>
       </c>
       <c r="N9">
-        <v>205550</v>
+        <v>201050</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1378,7 +1375,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>102328</v>
+        <v>100705</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -1390,34 +1387,34 @@
         <v>6</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10">
-        <v>1950</v>
+        <v>2000</v>
       </c>
       <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
         <v>27</v>
       </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
       <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
         <v>15</v>
       </c>
-      <c r="K10" t="s">
-        <v>16</v>
-      </c>
       <c r="L10">
-        <v>280550</v>
+        <v>267061</v>
       </c>
       <c r="M10">
-        <v>79500</v>
+        <v>72200</v>
       </c>
       <c r="N10">
-        <v>201050</v>
+        <v>194861</v>
       </c>
       <c r="O10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/final_report/Trace_Report_WCS_initial.xlsx
+++ b/final_report/Trace_Report_WCS_initial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rail car\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F0982E8-1C96-44DF-8EE0-73BFE6E28658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBA6223D-C87B-4C48-AF67-CB52BB14774F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17865" yWindow="-5985" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Test_format_trace" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>Initial</t>
   </si>
@@ -65,52 +65,40 @@
     <t>Destination City</t>
   </si>
   <si>
+    <t>AOKX</t>
+  </si>
+  <si>
+    <t>CHEYENNE</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>Arrive In-Transit</t>
+  </si>
+  <si>
+    <t>MNPDV2</t>
+  </si>
+  <si>
+    <t>JOHNSTOWN</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Placed Actual</t>
+  </si>
+  <si>
     <t>MWCX</t>
   </si>
   <si>
-    <t>Not authorized to view shipment</t>
-  </si>
-  <si>
-    <t>BONITA</t>
-  </si>
-  <si>
-    <t>KS</t>
-  </si>
-  <si>
-    <t>Departure</t>
-  </si>
-  <si>
-    <t>HMEMKC</t>
-  </si>
-  <si>
     <t>LOVELAND</t>
   </si>
   <si>
-    <t>CO</t>
-  </si>
-  <si>
     <t>ITFX</t>
   </si>
   <si>
-    <t>CHEYENNE</t>
-  </si>
-  <si>
-    <t>WY</t>
-  </si>
-  <si>
-    <t>Arrive In-Transit</t>
-  </si>
-  <si>
-    <t>MNPDV0</t>
-  </si>
-  <si>
-    <t>JOHNSTOWN</t>
-  </si>
-  <si>
-    <t>AOKX</t>
-  </si>
-  <si>
-    <t>Placed Actual</t>
+    <t>Arrive Dest</t>
   </si>
   <si>
     <t>Gross Weight</t>
@@ -122,25 +110,22 @@
     <t>Net Weight</t>
   </si>
   <si>
-    <t>Description unknown, completed 10/03/2023 10:51:22 EDT, by WPJTOWN1.The search returned: 5 events.</t>
+    <t>Description unknown, completed 10/24/2023 07:53:30 EDT, by WPJTOWN1.The search returned: 4 events.</t>
   </si>
   <si>
     <t>Car_no</t>
   </si>
   <si>
-    <t>MWCX102253</t>
-  </si>
-  <si>
-    <t>MWCX102534</t>
+    <t>AOKX40693</t>
+  </si>
+  <si>
+    <t>AOKX40676</t>
+  </si>
+  <si>
+    <t>MWCX102565</t>
   </si>
   <si>
     <t>ITFX9731</t>
-  </si>
-  <si>
-    <t>AOKX40676</t>
-  </si>
-  <si>
-    <t>MWCX102294</t>
   </si>
 </sst>
 </file>
@@ -981,17 +966,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O7"/>
+      <selection activeCell="O3" sqref="O3:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1029,16 +1014,16 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
         <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1046,16 +1031,46 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>102253</v>
+        <v>40693</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" t="s">
-        <v>11</v>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>23</v>
+      </c>
+      <c r="G3">
+        <v>2346</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3">
+        <v>188800</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>188800</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1063,46 +1078,43 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>102534</v>
+        <v>40676</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>2103</v>
+        <v>1415</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>16</v>
       </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
       <c r="L4">
-        <v>282880</v>
+        <v>211700</v>
       </c>
       <c r="M4">
-        <v>73500</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>209380</v>
+        <v>211700</v>
       </c>
       <c r="O4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1110,137 +1122,87 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>9731</v>
+        <v>102565</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1602</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L5">
-        <v>201650</v>
+        <v>284667</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>73400</v>
       </c>
       <c r="N5">
-        <v>201650</v>
+        <v>211267</v>
       </c>
       <c r="O5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>40676</v>
+        <v>9731</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>833</v>
+        <v>1148</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
       </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6">
-        <v>211700</v>
+        <v>201650</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>211700</v>
+        <v>201650</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>102294</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>1255</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7">
-        <v>284870</v>
-      </c>
-      <c r="M7">
-        <v>79100</v>
-      </c>
-      <c r="N7">
-        <v>205770</v>
-      </c>
-      <c r="O7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
